--- a/Documents/消息/Messages.xlsx
+++ b/Documents/消息/Messages.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Unity\EvoWinter\Assets\Documents\消息\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="4590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Item" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Character消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,14 +223,142 @@
   </si>
   <si>
     <t>类推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息值          段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 段3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem_Buff_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem_Skill_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（int）itemBuffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（int）itemSkillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用道具是的Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用道具是的Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisposableItem_Destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性道具销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Get_DisposableItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（int）itemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与一次性道具触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Leave_DisposableItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与一次性道具解除触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与立即使用道具触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与立即使用道具解除触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Get_ImmediatelyItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Leave_ImmediatelyItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitiativeItem_Energy_Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（int）energyNow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段2 为改变值后的主动道具的能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动道具能量改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitiativeItem_Destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动道具销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与主动道具触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与主动道具解除触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Get_InitiativeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Leave_InitiativeItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,11 +423,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,7 +524,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,336 +701,336 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5">
+      <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -920,14 +1043,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="4" max="8" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="14" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="15" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="16" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="17" ht="21.95" customHeight="1"/>
+    <row r="18" ht="21.95" customHeight="1"/>
+    <row r="19" ht="21.95" customHeight="1"/>
+    <row r="20" ht="21.95" customHeight="1"/>
+    <row r="21" ht="21.95" customHeight="1"/>
+    <row r="22" ht="21.95" customHeight="1"/>
+    <row r="23" ht="21.95" customHeight="1"/>
+    <row r="24" ht="21.95" customHeight="1"/>
+    <row r="25" ht="21.95" customHeight="1"/>
+    <row r="26" ht="21.95" customHeight="1"/>
+    <row r="27" ht="21.95" customHeight="1"/>
+    <row r="28" ht="21.95" customHeight="1"/>
+    <row r="29" ht="21.95" customHeight="1"/>
+    <row r="30" ht="21.95" customHeight="1"/>
+    <row r="31" ht="21.95" customHeight="1"/>
+    <row r="32" ht="21.95" customHeight="1"/>
+    <row r="33" ht="21.95" customHeight="1"/>
+    <row r="34" ht="21.95" customHeight="1"/>
+    <row r="35" ht="21.95" customHeight="1"/>
+    <row r="36" ht="21.95" customHeight="1"/>
+    <row r="37" ht="21.95" customHeight="1"/>
+    <row r="38" ht="21.95" customHeight="1"/>
+    <row r="39" ht="21.95" customHeight="1"/>
+    <row r="40" ht="21.95" customHeight="1"/>
+    <row r="41" ht="21.95" customHeight="1"/>
+    <row r="42" ht="21.95" customHeight="1"/>
+    <row r="43" ht="21.95" customHeight="1"/>
+    <row r="44" ht="21.95" customHeight="1"/>
+    <row r="45" ht="21.95" customHeight="1"/>
+    <row r="46" ht="21.95" customHeight="1"/>
+    <row r="47" ht="21.95" customHeight="1"/>
+    <row r="48" ht="21.95" customHeight="1"/>
+    <row r="49" ht="21.95" customHeight="1"/>
+    <row r="50" ht="21.95" customHeight="1"/>
+    <row r="51" ht="21.95" customHeight="1"/>
+    <row r="52" ht="21.95" customHeight="1"/>
+    <row r="53" ht="21.95" customHeight="1"/>
+    <row r="54" ht="21.95" customHeight="1"/>
+    <row r="55" ht="21.95" customHeight="1"/>
+    <row r="56" ht="21.95" customHeight="1"/>
+    <row r="57" ht="21.95" customHeight="1"/>
+    <row r="58" ht="21.95" customHeight="1"/>
+    <row r="59" ht="21.95" customHeight="1"/>
+    <row r="60" ht="21.95" customHeight="1"/>
+    <row r="61" ht="21.95" customHeight="1"/>
+    <row r="62" ht="21.95" customHeight="1"/>
+    <row r="63" ht="21.95" customHeight="1"/>
+    <row r="64" ht="21.95" customHeight="1"/>
+    <row r="65" ht="21.95" customHeight="1"/>
+    <row r="66" ht="21.95" customHeight="1"/>
+    <row r="67" ht="21.95" customHeight="1"/>
+    <row r="68" ht="21.95" customHeight="1"/>
+    <row r="69" ht="21.95" customHeight="1"/>
+    <row r="70" ht="21.95" customHeight="1"/>
+    <row r="71" ht="21.95" customHeight="1"/>
+    <row r="72" ht="21.95" customHeight="1"/>
+    <row r="73" ht="21.95" customHeight="1"/>
+    <row r="74" ht="21.95" customHeight="1"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Documents/消息/Messages.xlsx
+++ b/Documents/消息/Messages.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Unity\EvoWinter\Assets\Documents\消息\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="4590" activeTab="1"/>
   </bookViews>
@@ -11,8 +16,8 @@
     <sheet name="Item" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>Character消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,14 +356,30 @@
   </si>
   <si>
     <t>Player_Leave_InitiativeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射飞行物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenerateMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行轨迹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,7 +411,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -413,17 +434,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -701,38 +736,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -752,7 +787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -764,7 +799,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,7 +811,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -788,7 +823,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -812,7 +847,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -824,7 +859,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -836,7 +871,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -848,7 +883,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -860,7 +895,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -872,7 +907,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -886,7 +921,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -900,7 +935,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -912,7 +947,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -924,7 +959,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -936,7 +971,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5">
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -948,7 +983,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5">
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -958,7 +993,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -968,7 +1003,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5">
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -978,7 +1013,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5">
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -988,7 +1023,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5">
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -998,7 +1033,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5">
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -1008,7 +1043,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5">
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1020,7 +1055,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5">
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1031,6 +1066,20 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1043,14 +1092,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="40.75" customWidth="1"/>
@@ -1058,7 +1107,7 @@
     <col min="4" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.95" customHeight="1">
+    <row r="1" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1075,7 +1124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.95" customHeight="1">
+    <row r="2" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1086,7 +1135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.95" customHeight="1">
+    <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1097,7 +1146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.95" customHeight="1">
+    <row r="4" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1105,7 +1154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.95" customHeight="1">
+    <row r="5" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1116,7 +1165,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21.95" customHeight="1">
+    <row r="6" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1124,7 +1173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21.95" customHeight="1">
+    <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1135,7 +1184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21.95" customHeight="1">
+    <row r="8" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1143,7 +1192,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.95" customHeight="1">
+    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1157,7 +1206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.95" customHeight="1">
+    <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1165,7 +1214,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21.95" customHeight="1">
+    <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1176,7 +1225,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21.95" customHeight="1">
+    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1184,68 +1233,68 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21.95" customHeight="1"/>
-    <row r="14" spans="1:5" ht="21.95" customHeight="1"/>
-    <row r="15" spans="1:5" ht="21.95" customHeight="1"/>
-    <row r="16" spans="1:5" ht="21.95" customHeight="1"/>
-    <row r="17" ht="21.95" customHeight="1"/>
-    <row r="18" ht="21.95" customHeight="1"/>
-    <row r="19" ht="21.95" customHeight="1"/>
-    <row r="20" ht="21.95" customHeight="1"/>
-    <row r="21" ht="21.95" customHeight="1"/>
-    <row r="22" ht="21.95" customHeight="1"/>
-    <row r="23" ht="21.95" customHeight="1"/>
-    <row r="24" ht="21.95" customHeight="1"/>
-    <row r="25" ht="21.95" customHeight="1"/>
-    <row r="26" ht="21.95" customHeight="1"/>
-    <row r="27" ht="21.95" customHeight="1"/>
-    <row r="28" ht="21.95" customHeight="1"/>
-    <row r="29" ht="21.95" customHeight="1"/>
-    <row r="30" ht="21.95" customHeight="1"/>
-    <row r="31" ht="21.95" customHeight="1"/>
-    <row r="32" ht="21.95" customHeight="1"/>
-    <row r="33" ht="21.95" customHeight="1"/>
-    <row r="34" ht="21.95" customHeight="1"/>
-    <row r="35" ht="21.95" customHeight="1"/>
-    <row r="36" ht="21.95" customHeight="1"/>
-    <row r="37" ht="21.95" customHeight="1"/>
-    <row r="38" ht="21.95" customHeight="1"/>
-    <row r="39" ht="21.95" customHeight="1"/>
-    <row r="40" ht="21.95" customHeight="1"/>
-    <row r="41" ht="21.95" customHeight="1"/>
-    <row r="42" ht="21.95" customHeight="1"/>
-    <row r="43" ht="21.95" customHeight="1"/>
-    <row r="44" ht="21.95" customHeight="1"/>
-    <row r="45" ht="21.95" customHeight="1"/>
-    <row r="46" ht="21.95" customHeight="1"/>
-    <row r="47" ht="21.95" customHeight="1"/>
-    <row r="48" ht="21.95" customHeight="1"/>
-    <row r="49" ht="21.95" customHeight="1"/>
-    <row r="50" ht="21.95" customHeight="1"/>
-    <row r="51" ht="21.95" customHeight="1"/>
-    <row r="52" ht="21.95" customHeight="1"/>
-    <row r="53" ht="21.95" customHeight="1"/>
-    <row r="54" ht="21.95" customHeight="1"/>
-    <row r="55" ht="21.95" customHeight="1"/>
-    <row r="56" ht="21.95" customHeight="1"/>
-    <row r="57" ht="21.95" customHeight="1"/>
-    <row r="58" ht="21.95" customHeight="1"/>
-    <row r="59" ht="21.95" customHeight="1"/>
-    <row r="60" ht="21.95" customHeight="1"/>
-    <row r="61" ht="21.95" customHeight="1"/>
-    <row r="62" ht="21.95" customHeight="1"/>
-    <row r="63" ht="21.95" customHeight="1"/>
-    <row r="64" ht="21.95" customHeight="1"/>
-    <row r="65" ht="21.95" customHeight="1"/>
-    <row r="66" ht="21.95" customHeight="1"/>
-    <row r="67" ht="21.95" customHeight="1"/>
-    <row r="68" ht="21.95" customHeight="1"/>
-    <row r="69" ht="21.95" customHeight="1"/>
-    <row r="70" ht="21.95" customHeight="1"/>
-    <row r="71" ht="21.95" customHeight="1"/>
-    <row r="72" ht="21.95" customHeight="1"/>
-    <row r="73" ht="21.95" customHeight="1"/>
-    <row r="74" ht="21.95" customHeight="1"/>
+    <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/消息/Messages.xlsx
+++ b/Documents/消息/Messages.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Unity\EvoWinter\Assets\Documents\消息\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="4590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
     <sheet name="Item" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>Character消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,30 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackJStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackJOver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackJJStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackJJJStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackJJOver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackJJJOver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视野改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,14 +372,26 @@
   </si>
   <si>
     <t>玩家拾取立即使用道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(J,K,L,JJ...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackOver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,28 +748,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -786,7 +780,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -794,19 +788,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -818,7 +812,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,7 +824,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,7 +836,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,7 +848,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -866,7 +860,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -878,7 +872,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -890,7 +884,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -902,7 +896,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -914,7 +908,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -926,7 +920,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -940,7 +934,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -954,7 +948,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -966,7 +960,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -978,7 +972,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -990,40 +984,46 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5">
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5">
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>37</v>
@@ -1032,72 +1032,30 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5">
-      <c r="A26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" t="s">
-        <v>84</v>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1111,14 +1069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="40.75" customWidth="1"/>
@@ -1126,215 +1084,215 @@
     <col min="4" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.95" customHeight="1">
+    <row r="1" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A3" t="s">
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A4" t="s">
+    <row r="8" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A5" t="s">
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>70</v>
       </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A8" t="s">
+      <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A9" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>79</v>
       </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
       <c r="C15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21.95" customHeight="1"/>
-    <row r="17" ht="21.95" customHeight="1"/>
-    <row r="18" ht="21.95" customHeight="1"/>
-    <row r="19" ht="21.95" customHeight="1"/>
-    <row r="20" ht="21.95" customHeight="1"/>
-    <row r="21" ht="21.95" customHeight="1"/>
-    <row r="22" ht="21.95" customHeight="1"/>
-    <row r="23" ht="21.95" customHeight="1"/>
-    <row r="24" ht="21.95" customHeight="1"/>
-    <row r="25" ht="21.95" customHeight="1"/>
-    <row r="26" ht="21.95" customHeight="1"/>
-    <row r="27" ht="21.95" customHeight="1"/>
-    <row r="28" ht="21.95" customHeight="1"/>
-    <row r="29" ht="21.95" customHeight="1"/>
-    <row r="30" ht="21.95" customHeight="1"/>
-    <row r="31" ht="21.95" customHeight="1"/>
-    <row r="32" ht="21.95" customHeight="1"/>
-    <row r="33" ht="21.95" customHeight="1"/>
-    <row r="34" ht="21.95" customHeight="1"/>
-    <row r="35" ht="21.95" customHeight="1"/>
-    <row r="36" ht="21.95" customHeight="1"/>
-    <row r="37" ht="21.95" customHeight="1"/>
-    <row r="38" ht="21.95" customHeight="1"/>
-    <row r="39" ht="21.95" customHeight="1"/>
-    <row r="40" ht="21.95" customHeight="1"/>
-    <row r="41" ht="21.95" customHeight="1"/>
-    <row r="42" ht="21.95" customHeight="1"/>
-    <row r="43" ht="21.95" customHeight="1"/>
-    <row r="44" ht="21.95" customHeight="1"/>
-    <row r="45" ht="21.95" customHeight="1"/>
-    <row r="46" ht="21.95" customHeight="1"/>
-    <row r="47" ht="21.95" customHeight="1"/>
-    <row r="48" ht="21.95" customHeight="1"/>
-    <row r="49" ht="21.95" customHeight="1"/>
-    <row r="50" ht="21.95" customHeight="1"/>
-    <row r="51" ht="21.95" customHeight="1"/>
-    <row r="52" ht="21.95" customHeight="1"/>
-    <row r="53" ht="21.95" customHeight="1"/>
-    <row r="54" ht="21.95" customHeight="1"/>
-    <row r="55" ht="21.95" customHeight="1"/>
-    <row r="56" ht="21.95" customHeight="1"/>
-    <row r="57" ht="21.95" customHeight="1"/>
-    <row r="58" ht="21.95" customHeight="1"/>
-    <row r="59" ht="21.95" customHeight="1"/>
-    <row r="60" ht="21.95" customHeight="1"/>
-    <row r="61" ht="21.95" customHeight="1"/>
-    <row r="62" ht="21.95" customHeight="1"/>
-    <row r="63" ht="21.95" customHeight="1"/>
-    <row r="64" ht="21.95" customHeight="1"/>
-    <row r="65" ht="21.95" customHeight="1"/>
-    <row r="66" ht="21.95" customHeight="1"/>
-    <row r="67" ht="21.95" customHeight="1"/>
-    <row r="68" ht="21.95" customHeight="1"/>
-    <row r="69" ht="21.95" customHeight="1"/>
-    <row r="70" ht="21.95" customHeight="1"/>
-    <row r="71" ht="21.95" customHeight="1"/>
-    <row r="72" ht="21.95" customHeight="1"/>
-    <row r="73" ht="21.95" customHeight="1"/>
-    <row r="74" ht="21.95" customHeight="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/消息/Messages.xlsx
+++ b/Documents/消息/Messages.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="4590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -227,163 +227,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（int）itemBuffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（int）itemSkillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用道具是的Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用道具是的Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisposableItem_Destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性道具销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Get_DisposableItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（int）itemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与一次性道具触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与一次性道具解除触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与立即使用道具触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与立即使用道具解除触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Get_ImmediatelyItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitiativeItem_Energy_Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（int）energyNow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段2 为改变值后的主动道具的能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动道具能量改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动道具销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与主动道具触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与主动道具解除触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Leave_InitiativeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射飞行物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenerateMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行轨迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拾取主动道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Leave_ImmediatelyItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Leave_DisposableItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拾取一次性道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拾取立即使用道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(J,K,L,JJ...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackOver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_DisposableItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitiativeItem_Destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Get_InitiativeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_InitiativeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_ImmediatelyItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UseItem_Buff_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UseItem_Skill_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（int）itemBuffID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（int）itemSkillID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用道具是的Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用道具是的Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisposableItem_Destroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性道具销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Get_DisposableItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（int）itemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与一次性道具触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与一次性道具解除触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与立即使用道具触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与立即使用道具解除触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Get_ImmediatelyItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitiativeItem_Energy_Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（int）energyNow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段2 为改变值后的主动道具的能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动道具能量改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitiativeItem_Destroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动道具销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与主动道具触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与主动道具解除触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Get_InitiativeItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Leave_InitiativeItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射飞行物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GenerateMissile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞行轨迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家拾取主动道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get_InitiativeItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Leave_ImmediatelyItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get_ImmediatelyItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Leave_DisposableItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get_DisposableItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家拾取一次性道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家拾取立即使用道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型(J,K,L,JJ...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackOver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -990,10 +990,10 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1002,10 +1002,10 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1103,135 +1103,135 @@
     </row>
     <row r="2" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Documents/消息/Messages.xlsx
+++ b/Documents/消息/Messages.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="4590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Character消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +384,22 @@
   </si>
   <si>
     <t>UseItem_Skill_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器击中目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中者的tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中者在CharacterList里的位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +491,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1056,6 +1075,20 @@
       </c>
       <c r="E23" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/Documents/消息/Messages.xlsx
+++ b/Documents/消息/Messages.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Unity\EvoWinter\Assets\Documents\消息\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="4590"/>
   </bookViews>
@@ -16,8 +11,8 @@
     <sheet name="Item" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -135,279 +130,279 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>即不进行武器与敌人的碰撞检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectionChanged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SightChanged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuckChanged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息值 段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息值          段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 段3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（int）itemBuffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（int）itemSkillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用道具是的Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用道具是的Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisposableItem_Destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性道具销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Get_DisposableItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（int）itemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与一次性道具触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与一次性道具解除触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与立即使用道具触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与立即使用道具解除触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Get_ImmediatelyItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitiativeItem_Energy_Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（int）energyNow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段2 为改变值后的主动道具的能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动道具能量改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动道具销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与主动道具触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与主动道具解除触碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Leave_InitiativeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射飞行物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenerateMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行轨迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拾取主动道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Leave_ImmediatelyItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Leave_DisposableItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拾取一次性道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拾取立即使用道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(J,K,L,JJ...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackOver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_DisposableItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitiativeItem_Destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Get_InitiativeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_InitiativeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_ImmediatelyItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem_Buff_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem_Skill_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器击中目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中者的tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中者在CharacterList里的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>WeaponDontDmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即不进行武器与敌人的碰撞检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DirectionChanged</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方向改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视野改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SightChanged</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuckChanged</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息值 段1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息值          段1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 段2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 段3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（int）itemBuffID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（int）itemSkillID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用道具是的Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用道具是的Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisposableItem_Destroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性道具销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Get_DisposableItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（int）itemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与一次性道具触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与一次性道具解除触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与立即使用道具触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与立即使用道具解除触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Get_ImmediatelyItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitiativeItem_Energy_Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（int）energyNow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段2 为改变值后的主动道具的能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动道具能量改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动道具销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与主动道具触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家与主动道具解除触碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Leave_InitiativeItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射飞行物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GenerateMissile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞行轨迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家拾取主动道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Leave_ImmediatelyItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Leave_DisposableItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家拾取一次性道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家拾取立即使用道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型(J,K,L,JJ...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackOver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get_DisposableItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitiativeItem_Destroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Get_InitiativeItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get_InitiativeItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get_ImmediatelyItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseItem_Buff_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseItem_Skill_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器击中目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击中者的tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击中者在CharacterList里的位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,11 +484,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,39 +762,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="25.875" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="16.5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -807,19 +803,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -831,7 +827,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,7 +839,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,7 +851,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,7 +863,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -879,7 +875,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -891,7 +887,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="16.5">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -903,7 +899,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -915,7 +911,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -927,7 +923,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="16.5">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -939,7 +935,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -953,142 +949,142 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="16.5">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="16.5">
       <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>73</v>
       </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="16.5">
+      <c r="A24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>92</v>
-      </c>
-      <c r="E24" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1102,14 +1098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="40.75" customWidth="1"/>
@@ -1117,215 +1113,215 @@
     <col min="4" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="21.95" customHeight="1">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
       <c r="C15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.95" customHeight="1"/>
+    <row r="17" ht="21.95" customHeight="1"/>
+    <row r="18" ht="21.95" customHeight="1"/>
+    <row r="19" ht="21.95" customHeight="1"/>
+    <row r="20" ht="21.95" customHeight="1"/>
+    <row r="21" ht="21.95" customHeight="1"/>
+    <row r="22" ht="21.95" customHeight="1"/>
+    <row r="23" ht="21.95" customHeight="1"/>
+    <row r="24" ht="21.95" customHeight="1"/>
+    <row r="25" ht="21.95" customHeight="1"/>
+    <row r="26" ht="21.95" customHeight="1"/>
+    <row r="27" ht="21.95" customHeight="1"/>
+    <row r="28" ht="21.95" customHeight="1"/>
+    <row r="29" ht="21.95" customHeight="1"/>
+    <row r="30" ht="21.95" customHeight="1"/>
+    <row r="31" ht="21.95" customHeight="1"/>
+    <row r="32" ht="21.95" customHeight="1"/>
+    <row r="33" ht="21.95" customHeight="1"/>
+    <row r="34" ht="21.95" customHeight="1"/>
+    <row r="35" ht="21.95" customHeight="1"/>
+    <row r="36" ht="21.95" customHeight="1"/>
+    <row r="37" ht="21.95" customHeight="1"/>
+    <row r="38" ht="21.95" customHeight="1"/>
+    <row r="39" ht="21.95" customHeight="1"/>
+    <row r="40" ht="21.95" customHeight="1"/>
+    <row r="41" ht="21.95" customHeight="1"/>
+    <row r="42" ht="21.95" customHeight="1"/>
+    <row r="43" ht="21.95" customHeight="1"/>
+    <row r="44" ht="21.95" customHeight="1"/>
+    <row r="45" ht="21.95" customHeight="1"/>
+    <row r="46" ht="21.95" customHeight="1"/>
+    <row r="47" ht="21.95" customHeight="1"/>
+    <row r="48" ht="21.95" customHeight="1"/>
+    <row r="49" ht="21.95" customHeight="1"/>
+    <row r="50" ht="21.95" customHeight="1"/>
+    <row r="51" ht="21.95" customHeight="1"/>
+    <row r="52" ht="21.95" customHeight="1"/>
+    <row r="53" ht="21.95" customHeight="1"/>
+    <row r="54" ht="21.95" customHeight="1"/>
+    <row r="55" ht="21.95" customHeight="1"/>
+    <row r="56" ht="21.95" customHeight="1"/>
+    <row r="57" ht="21.95" customHeight="1"/>
+    <row r="58" ht="21.95" customHeight="1"/>
+    <row r="59" ht="21.95" customHeight="1"/>
+    <row r="60" ht="21.95" customHeight="1"/>
+    <row r="61" ht="21.95" customHeight="1"/>
+    <row r="62" ht="21.95" customHeight="1"/>
+    <row r="63" ht="21.95" customHeight="1"/>
+    <row r="64" ht="21.95" customHeight="1"/>
+    <row r="65" ht="21.95" customHeight="1"/>
+    <row r="66" ht="21.95" customHeight="1"/>
+    <row r="67" ht="21.95" customHeight="1"/>
+    <row r="68" ht="21.95" customHeight="1"/>
+    <row r="69" ht="21.95" customHeight="1"/>
+    <row r="70" ht="21.95" customHeight="1"/>
+    <row r="71" ht="21.95" customHeight="1"/>
+    <row r="72" ht="21.95" customHeight="1"/>
+    <row r="73" ht="21.95" customHeight="1"/>
+    <row r="74" ht="21.95" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
